--- a/REGULAR/OJT/NEW DONE/CRIZALDO, THELMA.xlsx
+++ b/REGULAR/OJT/NEW DONE/CRIZALDO, THELMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217B15C4-E743-4F09-81C6-5F03908AE263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23963B75-BCE8-4211-A297-87D72D368742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="407">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1252,6 +1252,9 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>6/29,30/2023</t>
   </si>
 </sst>
 </file>
@@ -2291,9 +2294,9 @@
   <dimension ref="A2:K561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A2"/>
+      <pane ySplit="4056" topLeftCell="A508" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="K515" sqref="K515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2456,7 +2459,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.652999999999963</v>
+        <v>28.902999999999963</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2466,7 +2469,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>140.5</v>
+        <v>141.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10171,7 +10174,7 @@
       </c>
       <c r="E341" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.652999999999963</v>
+        <v>28.902999999999963</v>
       </c>
       <c r="F341" s="20"/>
       <c r="G341" s="13" t="str">
@@ -10181,7 +10184,7 @@
       <c r="H341" s="39"/>
       <c r="I341" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>140.5</v>
+        <v>141.75</v>
       </c>
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
@@ -10249,7 +10252,7 @@
       </c>
       <c r="E344" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.652999999999963</v>
+        <v>28.902999999999963</v>
       </c>
       <c r="F344" s="20"/>
       <c r="G344" s="13" t="str">
@@ -10259,7 +10262,7 @@
       <c r="H344" s="39"/>
       <c r="I344" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>140.5</v>
+        <v>141.75</v>
       </c>
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
@@ -10300,7 +10303,7 @@
       <c r="D346" s="39"/>
       <c r="E346" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.652999999999963</v>
+        <v>28.902999999999963</v>
       </c>
       <c r="F346" s="20"/>
       <c r="G346" s="13" t="str">
@@ -10312,7 +10315,7 @@
       </c>
       <c r="I346" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>140.5</v>
+        <v>141.75</v>
       </c>
       <c r="J346" s="11"/>
       <c r="K346" s="20" t="s">
@@ -10330,7 +10333,7 @@
       </c>
       <c r="E347" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.652999999999963</v>
+        <v>28.902999999999963</v>
       </c>
       <c r="F347" s="20"/>
       <c r="G347" s="13" t="str">
@@ -10340,7 +10343,7 @@
       <c r="H347" s="39"/>
       <c r="I347" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>140.5</v>
+        <v>141.75</v>
       </c>
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
@@ -10383,7 +10386,7 @@
       </c>
       <c r="E349" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.652999999999963</v>
+        <v>28.902999999999963</v>
       </c>
       <c r="F349" s="20"/>
       <c r="G349" s="13" t="str">
@@ -10393,7 +10396,7 @@
       <c r="H349" s="39"/>
       <c r="I349" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>140.5</v>
+        <v>141.75</v>
       </c>
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
@@ -10434,7 +10437,7 @@
       <c r="D351" s="39"/>
       <c r="E351" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.652999999999963</v>
+        <v>28.902999999999963</v>
       </c>
       <c r="F351" s="20"/>
       <c r="G351" s="13" t="str">
@@ -10446,7 +10449,7 @@
       </c>
       <c r="I351" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>140.5</v>
+        <v>141.75</v>
       </c>
       <c r="J351" s="11"/>
       <c r="K351" s="20" t="s">
@@ -10462,7 +10465,7 @@
       <c r="D352" s="39"/>
       <c r="E352" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.652999999999963</v>
+        <v>28.902999999999963</v>
       </c>
       <c r="F352" s="20"/>
       <c r="G352" s="13">
@@ -10473,7 +10476,7 @@
       </c>
       <c r="I352" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>140.5</v>
+        <v>141.75</v>
       </c>
       <c r="J352" s="11"/>
       <c r="K352" s="20" t="s">
@@ -10491,7 +10494,7 @@
       </c>
       <c r="E353" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.652999999999963</v>
+        <v>28.902999999999963</v>
       </c>
       <c r="F353" s="20"/>
       <c r="G353" s="13" t="str">
@@ -10501,7 +10504,7 @@
       <c r="H353" s="39"/>
       <c r="I353" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>140.5</v>
+        <v>141.75</v>
       </c>
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
@@ -14131,13 +14134,15 @@
         <v>45047</v>
       </c>
       <c r="B514" s="20"/>
-      <c r="C514" s="13"/>
+      <c r="C514" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D514" s="39"/>
       <c r="E514" s="9"/>
       <c r="F514" s="20"/>
-      <c r="G514" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G514" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H514" s="39"/>
       <c r="I514" s="9"/>
@@ -14148,9 +14153,13 @@
       <c r="A515" s="40">
         <v>45078</v>
       </c>
-      <c r="B515" s="20"/>
+      <c r="B515" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C515" s="13"/>
-      <c r="D515" s="39"/>
+      <c r="D515" s="39">
+        <v>2</v>
+      </c>
       <c r="E515" s="9"/>
       <c r="F515" s="20"/>
       <c r="G515" s="13" t="str">
@@ -14160,7 +14169,9 @@
       <c r="H515" s="39"/>
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
-      <c r="K515" s="20"/>
+      <c r="K515" s="20" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
@@ -15123,7 +15134,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>170.15299999999996</v>
+        <v>170.65299999999996</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
